--- a/artfynd/A 30615-2021.xlsx
+++ b/artfynd/A 30615-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94726865</v>
+        <v>94726858</v>
       </c>
       <c r="B2" t="n">
         <v>90653</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>384877.9589394439</v>
+        <v>385265.0156850286</v>
       </c>
       <c r="R2" t="n">
-        <v>6859174.532311272</v>
+        <v>6859540.436323261</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94726866</v>
+        <v>94726865</v>
       </c>
       <c r="B3" t="n">
         <v>90653</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>384791.7633146424</v>
+        <v>384877.9589394439</v>
       </c>
       <c r="R3" t="n">
-        <v>6859186.413516715</v>
+        <v>6859174.532311272</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94726863</v>
+        <v>94726866</v>
       </c>
       <c r="B4" t="n">
         <v>90653</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>385177.7883688264</v>
+        <v>384791.7633146424</v>
       </c>
       <c r="R4" t="n">
-        <v>6859324.146674156</v>
+        <v>6859186.413516715</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94726858</v>
+        <v>94726863</v>
       </c>
       <c r="B5" t="n">
         <v>90653</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>385265.0156850286</v>
+        <v>385177.7883688264</v>
       </c>
       <c r="R5" t="n">
-        <v>6859540.436323261</v>
+        <v>6859324.146674156</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">

--- a/artfynd/A 30615-2021.xlsx
+++ b/artfynd/A 30615-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94726858</v>
+        <v>94726865</v>
       </c>
       <c r="B2" t="n">
         <v>90653</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>385265.0156850286</v>
+        <v>384877.9589394439</v>
       </c>
       <c r="R2" t="n">
-        <v>6859540.436323261</v>
+        <v>6859174.532311272</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94726865</v>
+        <v>94726866</v>
       </c>
       <c r="B3" t="n">
         <v>90653</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>384877.9589394439</v>
+        <v>384791.7633146424</v>
       </c>
       <c r="R3" t="n">
-        <v>6859174.532311272</v>
+        <v>6859186.413516715</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94726866</v>
+        <v>94726863</v>
       </c>
       <c r="B4" t="n">
         <v>90653</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>384791.7633146424</v>
+        <v>385177.7883688264</v>
       </c>
       <c r="R4" t="n">
-        <v>6859186.413516715</v>
+        <v>6859324.146674156</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94726863</v>
+        <v>94726858</v>
       </c>
       <c r="B5" t="n">
         <v>90653</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>385177.7883688264</v>
+        <v>385265.0156850286</v>
       </c>
       <c r="R5" t="n">
-        <v>6859324.146674156</v>
+        <v>6859540.436323261</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
